--- a/data/trans_orig/P78C5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P78C5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C1E44F5-7C3F-47E1-9FC3-CCA58F0E0293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE481CE-8961-4820-840B-C050B1AC76D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{416939F8-E13B-43AE-AC6A-4DA0060700D4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E98139C7-96E9-4C6A-B22E-0897476278C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="123">
   <si>
     <t>Población según si tiene resuelto el retraso en los pagos de los impuestos relacionados con vehículos en 2023 (Tasa respuesta: 1,21%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,13 @@
     <t>100%</t>
   </si>
   <si>
-    <t>56,41%</t>
+    <t>52,24%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>75,02%</t>
+    <t>70,87%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,289 +98,310 @@
     <t>77,15%</t>
   </si>
   <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>76,99%</t>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>75,47%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
   </si>
   <si>
     <t>65,4%</t>
   </si>
   <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -795,8 +816,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{003EFE6E-5490-418F-AAF1-A928B170A187}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD933A6-C64D-4F4D-B393-17D31B6562E5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -916,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2762</v>
+        <v>2070</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -931,7 +952,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>2091</v>
+        <v>1690</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -946,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>4853</v>
+        <v>3760</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -982,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>1616</v>
+        <v>1546</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -997,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1616</v>
+        <v>1546</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>21</v>
@@ -1018,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>2762</v>
+        <v>2070</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1033,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>3707</v>
+        <v>3236</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1048,7 +1069,7 @@
         <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>6469</v>
+        <v>5306</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1071,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>4303</v>
+        <v>3975</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -1086,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3880</v>
+        <v>3370</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
@@ -1101,7 +1122,7 @@
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>8183</v>
+        <v>7345</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>25</v>
@@ -1122,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>27</v>
@@ -1152,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>29</v>
@@ -1173,7 +1194,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>5589</v>
+        <v>5267</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>13</v>
@@ -1188,7 +1209,7 @@
         <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>3880</v>
+        <v>3370</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>13</v>
@@ -1203,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="N9" s="7">
-        <v>9469</v>
+        <v>8637</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>13</v>
@@ -1226,7 +1247,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2610</v>
+        <v>2542</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>32</v>
@@ -1241,7 +1262,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6331</v>
+        <v>5570</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>34</v>
@@ -1256,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>8941</v>
+        <v>8112</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
@@ -1277,7 +1298,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>2281</v>
+        <v>2208</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1292,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>3396</v>
+        <v>3210</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>42</v>
@@ -1307,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="N11" s="7">
-        <v>5677</v>
+        <v>5419</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>45</v>
@@ -1328,7 +1349,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>4891</v>
+        <v>4750</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1343,7 +1364,7 @@
         <v>12</v>
       </c>
       <c r="I12" s="7">
-        <v>9727</v>
+        <v>8780</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1358,7 +1379,7 @@
         <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>14618</v>
+        <v>13531</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1381,7 +1402,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8814</v>
+        <v>7990</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -1396,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>6169</v>
+        <v>5529</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>51</v>
@@ -1411,7 +1432,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>14983</v>
+        <v>13520</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -1432,7 +1453,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1180</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>57</v>
@@ -1447,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>3783</v>
+        <v>3558</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>59</v>
@@ -1462,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>4963</v>
+        <v>4560</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>62</v>
@@ -1483,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="7">
-        <v>9994</v>
+        <v>8992</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1498,7 +1519,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="7">
-        <v>9952</v>
+        <v>9087</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1513,7 +1534,7 @@
         <v>23</v>
       </c>
       <c r="N15" s="7">
-        <v>19946</v>
+        <v>18080</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1536,7 +1557,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>12030</v>
+        <v>10836</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
@@ -1551,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>5741</v>
+        <v>5214</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>69</v>
@@ -1566,7 +1587,7 @@
         <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>17772</v>
+        <v>16050</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>71</v>
@@ -1587,7 +1608,7 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>3435</v>
+        <v>3215</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>74</v>
@@ -1602,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>663</v>
+        <v>618</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>77</v>
@@ -1617,7 +1638,7 @@
         <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>4097</v>
+        <v>3833</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>79</v>
@@ -1638,7 +1659,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>15465</v>
+        <v>14051</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1653,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>6404</v>
+        <v>5832</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1668,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>21869</v>
+        <v>19883</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1688,10 +1709,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>7648</v>
+        <v>2810</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>83</v>
@@ -1703,10 +1724,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>10622</v>
+        <v>6436</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>85</v>
@@ -1718,10 +1739,10 @@
         <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>18270</v>
+        <v>9246</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>87</v>
@@ -1742,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>1147</v>
+        <v>1073</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>90</v>
@@ -1757,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>401</v>
+        <v>364</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>92</v>
@@ -1772,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1548</v>
+        <v>1437</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>94</v>
@@ -1790,10 +1811,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>8795</v>
+        <v>3883</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>13</v>
@@ -1805,10 +1826,10 @@
         <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>11023</v>
+        <v>6800</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>13</v>
@@ -1820,10 +1841,10 @@
         <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N21" s="7">
-        <v>19818</v>
+        <v>10683</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
@@ -1837,55 +1858,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>97</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>38167</v>
+        <v>4018</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2740</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="7">
-        <v>47</v>
-      </c>
-      <c r="I22" s="7">
-        <v>34835</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" s="7">
+        <v>11</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6757</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M22" s="7">
-        <v>82</v>
-      </c>
-      <c r="N22" s="7">
-        <v>73002</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,49 +1915,49 @@
         <v>17</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>9328</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>9859</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M23" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="N23" s="7">
-        <v>19187</v>
+        <v>0</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,63 +1966,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="D24" s="7">
+        <v>4018</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2740</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" s="7">
+        <v>11</v>
+      </c>
+      <c r="N24" s="7">
+        <v>6757</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>35</v>
+      </c>
+      <c r="D25" s="7">
+        <v>34241</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="7">
+        <v>47</v>
+      </c>
+      <c r="I25" s="7">
+        <v>30550</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M25" s="7">
+        <v>82</v>
+      </c>
+      <c r="N25" s="7">
+        <v>64791</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="7">
+        <v>11</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8791</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="7">
+        <v>13</v>
+      </c>
+      <c r="I26" s="7">
+        <v>9295</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M26" s="7">
+        <v>24</v>
+      </c>
+      <c r="N26" s="7">
+        <v>18086</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>46</v>
       </c>
-      <c r="D24" s="7">
-        <v>47495</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>43032</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="7">
         <v>60</v>
       </c>
-      <c r="I24" s="7">
-        <v>44694</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>39845</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M27" s="7">
         <v>106</v>
       </c>
-      <c r="N24" s="7">
-        <v>92189</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>115</v>
+      <c r="N27" s="7">
+        <v>82877</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
